--- a/KH_HUE_T08_TaskManagement_v1.0.xlsx
+++ b/KH_HUE_T08_TaskManagement_v1.0.xlsx
@@ -65,37 +65,37 @@
     <t>Vẽ page flow, mô tả giao diện</t>
   </si>
   <si>
-    <t>Edit lại theo như review của fsoft, tổng hợp và hoàn tất SRS (v2.0)</t>
-  </si>
-  <si>
-    <t>Edit lại theo như review của fsoft, tổng hợp và hoàn tất SRS (v3.0)</t>
-  </si>
-  <si>
     <t>Mô tả giao diện, các yêu cầu phi chức năng</t>
   </si>
   <si>
-    <t>Vẽ Usecase; mô tả giao diện; tổng hợp và hoàn tất các mục còn lại của SRS (v1.0)</t>
-  </si>
-  <si>
     <t>Vẽ Sequence Diagram (Đăng Nhập, Xem Tin nhắn, Gửi Tin nhắn, Đăng kí đề tài (Sinh viên), Xác Nhận đăng kí đề tài (Sinh viên))</t>
   </si>
   <si>
-    <t>Vẽ Diagram Database</t>
-  </si>
-  <si>
-    <t>Vẽ Class Diagram</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vẽ Sequence Diagram Nhập điểm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hoàn tất các tài liệu (v1.0)</t>
-  </si>
-  <si>
     <t>Vẽ Sequence Diagram (Đăng kí đề tài hướng dẫn, Duyệt đề tài, Huỷ đề tài (Sinh viên), Huỷ đề tài (Giáo Viên))</t>
   </si>
   <si>
     <t>Vẽ Sequence Diagram (Đổi mật khẩu, Cập nhật thông tin cá nhân, Tra cứu - thống kê)</t>
+  </si>
+  <si>
+    <t>Mô tả mục đích, phạm vi, chức năng; Vẽ Usecase; mô tả giao diện; tổng hợp và hoàn tất các mục còn lại của SRS (v1.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vẽ Sequence Diagram (Nhập điểm)</t>
+  </si>
+  <si>
+    <t>Tạo Diagram Database</t>
+  </si>
+  <si>
+    <t>Tạo Class Diagram</t>
+  </si>
+  <si>
+    <t>Tạo Task Management</t>
+  </si>
+  <si>
+    <t>Edit lại theo như review của Fsoft, tổng hợp và hoàn tất SRS (v2.0)</t>
+  </si>
+  <si>
+    <t>Edit lại theo như review của Fsoft, tổng hợp và hoàn tất SRS (v3.0)</t>
   </si>
 </sst>
 </file>
@@ -105,13 +105,20 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -327,84 +334,84 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="4" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="8" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="5" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="4" borderId="7" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="3" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -697,17 +704,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -738,19 +745,19 @@
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
@@ -759,7 +766,7 @@
         <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -767,7 +774,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
@@ -778,7 +785,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -788,23 +795,23 @@
       <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>18</v>
+      <c r="B7" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18"/>
-      <c r="B8" s="24" t="s">
-        <v>19</v>
+      <c r="B8" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -812,8 +819,8 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18"/>
-      <c r="B9" s="24" t="s">
-        <v>20</v>
+      <c r="B9" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -821,7 +828,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="19"/>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="23" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="22"/>
